--- a/All data.xlsx
+++ b/All data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9024" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="wages" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="398">
   <si>
     <t>mw3wl_us     </t>
   </si>
@@ -107,6 +107,18 @@
     <t>mw3wl_us</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>industry_code</t>
+  </si>
+  <si>
+    <t>monthly_wages</t>
+  </si>
+  <si>
+    <t>hour_wages</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
@@ -119,6 +131,15 @@
     <t>JC</t>
   </si>
   <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
     <t>CR</t>
   </si>
   <si>
@@ -164,15 +185,15 @@
     <t>Germany</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -209,6 +230,12 @@
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
@@ -290,6 +317,12 @@
     <t>Russian Federation</t>
   </si>
   <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
@@ -308,6 +341,12 @@
     <t>Slovak Republic</t>
   </si>
   <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
@@ -372,12 +411,6 @@
   </si>
   <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>PHL</t>
-  </si>
-  <si>
-    <t>Philippines</t>
   </si>
   <si>
     <t>PL</t>
@@ -1533,6 +1566,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1702,12 +1741,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,7 +2038,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2029,16 +2062,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2047,76 +2080,76 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2129,7 +2162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2296,10 +2329,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2308,11 +2344,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
@@ -2935,10 +2974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2948,35 +2987,36 @@
     <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="10" max="11" width="12.8888888888889"/>
+    <col min="12" max="12" width="8.88888888888889" style="60"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.4" spans="1:5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:5">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="62" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2984,10 +3024,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="64" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2995,10 +3035,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="62" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3006,10 +3046,10 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3017,10 +3057,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="62" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3028,14 +3068,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:18">
       <c r="A10" s="32" t="s">
         <v>18</v>
       </c>
@@ -3067,22 +3107,40 @@
       <c r="K10" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>2008</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>31</v>
@@ -3099,22 +3157,40 @@
       <c r="K11">
         <v>1866.27880859375</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>2.3831985</v>
+      </c>
+      <c r="R11" s="67">
+        <v>0.015781568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>31</v>
@@ -3131,22 +3207,40 @@
       <c r="K12">
         <v>404.424621582031</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="67">
+        <v>2.814005613</v>
+      </c>
+      <c r="R12" s="67">
+        <v>0.018634379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>2008</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
       </c>
       <c r="F13">
         <v>31</v>
@@ -3163,22 +3257,40 @@
       <c r="K13">
         <v>390.663055419922</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N13" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="67">
+        <v>6.23028183</v>
+      </c>
+      <c r="R13" s="67">
+        <v>0.041256998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>2008</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>31</v>
@@ -3195,22 +3307,40 @@
       <c r="K14">
         <v>646.582458496094</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="67">
+        <v>7.590224266</v>
+      </c>
+      <c r="R14" s="67">
+        <v>0.050262541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>2008</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>31</v>
@@ -3227,22 +3357,40 @@
       <c r="K15">
         <v>505.819610595703</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N15" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="67">
+        <v>10.05532455</v>
+      </c>
+      <c r="R15" s="67">
+        <v>0.066586457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>2008</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>31</v>
@@ -3259,22 +3407,40 @@
       <c r="K16">
         <v>4124.1767578125</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N16" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="67">
+        <v>22.04174995</v>
+      </c>
+      <c r="R16" s="67">
+        <v>0.107556492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>2008</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>31</v>
@@ -3291,22 +3457,40 @@
       <c r="K17">
         <v>93.7751541137695</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N17" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="67">
+        <v>22.73332214</v>
+      </c>
+      <c r="R17" s="67">
+        <v>0.110931136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>31</v>
@@ -3323,22 +3507,40 @@
       <c r="K18">
         <v>1912.63891601562</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N18" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>23.01025772</v>
+      </c>
+      <c r="R18" s="67">
+        <v>0.112282477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>2008</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <v>31</v>
@@ -3355,22 +3557,40 @@
       <c r="K19">
         <v>249.501556396484</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N19" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="67">
+        <v>23.6261158</v>
+      </c>
+      <c r="R19" s="67">
+        <v>0.115287662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>2008</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <v>31</v>
@@ -3387,22 +3607,40 @@
       <c r="K20">
         <v>379.183685302734</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="67">
+        <v>24.63747978</v>
+      </c>
+      <c r="R20" s="67">
+        <v>0.120222792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>2008</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F21">
         <v>31</v>
@@ -3419,22 +3657,40 @@
       <c r="K21">
         <v>1410.93310546875</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N21" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="67">
+        <v>61.32303238</v>
+      </c>
+      <c r="R21" s="67">
+        <v>0.325558126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>2008</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>31</v>
@@ -3451,22 +3707,40 @@
       <c r="K22">
         <v>652.738098144531</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N22" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="67">
+        <v>70.33779144</v>
+      </c>
+      <c r="R22" s="67">
+        <v>0.374172121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>2008</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>31</v>
@@ -3483,22 +3757,40 @@
       <c r="K23">
         <v>2511.8759765625</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>70.60704803</v>
+      </c>
+      <c r="R23" s="67">
+        <v>0.37551409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>31</v>
@@ -3515,22 +3807,40 @@
       <c r="K24">
         <v>188.618194580078</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N24" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>78.5661087</v>
+      </c>
+      <c r="R24" s="67">
+        <v>0.420534283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>2007</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>31</v>
@@ -3547,22 +3857,40 @@
       <c r="K25">
         <v>1552.73974609375</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N25" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="67">
+        <v>75.98010254</v>
+      </c>
+      <c r="R25" s="67">
+        <v>0.429047316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>2007</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26">
         <v>31</v>
@@ -3579,22 +3907,40 @@
       <c r="K26">
         <v>408.357727050781</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N26" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="67">
+        <v>73.97709656</v>
+      </c>
+      <c r="R26" s="67">
+        <v>0.430578202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>2007</v>
       </c>
       <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
         <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
       </c>
       <c r="F27">
         <v>31</v>
@@ -3611,22 +3957,40 @@
       <c r="K27">
         <v>264.575958251953</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N27" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="67">
+        <v>79.53908539</v>
+      </c>
+      <c r="R27" s="67">
+        <v>0.462951481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>2007</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F28">
         <v>31</v>
@@ -3643,22 +4007,40 @@
       <c r="K28">
         <v>476.521728515625</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N28" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="67">
+        <v>80.03941345</v>
+      </c>
+      <c r="R28" s="67">
+        <v>0.462996572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>2007</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F29">
         <v>31</v>
@@ -3675,22 +4057,40 @@
       <c r="K29">
         <v>5235.01611328125</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N29" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="67">
+        <v>82.77062988</v>
+      </c>
+      <c r="R29" s="67">
+        <v>0.478795648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>2007</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F30">
         <v>31</v>
@@ -3707,22 +4107,40 @@
       <c r="K30">
         <v>505.819610595703</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N30" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="67">
+        <v>90.58123779</v>
+      </c>
+      <c r="R30" s="67">
+        <v>0.47920531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>2007</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F31">
         <v>31</v>
@@ -3739,22 +4157,40 @@
       <c r="K31">
         <v>3262.5751953125</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N31" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="67">
+        <v>152.6013336</v>
+      </c>
+      <c r="R31" s="67">
+        <v>0.84463954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>2007</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -3771,22 +4207,40 @@
       <c r="K32">
         <v>3789.05981445312</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N32" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="67">
+        <v>177.7968292</v>
+      </c>
+      <c r="R32" s="67">
+        <v>0.984095275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>2007</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F33">
         <v>31</v>
@@ -3803,22 +4257,40 @@
       <c r="K33">
         <v>335.805206298828</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N33" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="67">
+        <v>186.5350037</v>
+      </c>
+      <c r="R33" s="67">
+        <v>1.03246057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>2007</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F34">
         <v>31</v>
@@ -3835,22 +4307,40 @@
       <c r="K34">
         <v>548.817016601562</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="M34" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N34" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="67">
+        <v>192.3773804</v>
+      </c>
+      <c r="R34" s="67">
+        <v>1.064797044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>2007</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35">
         <v>31</v>
@@ -3867,22 +4357,40 @@
       <c r="K35">
         <v>1758.66943359375</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N35" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="67">
+        <v>214.5049744</v>
+      </c>
+      <c r="R35" s="67">
+        <v>1.261476278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>2007</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>31</v>
@@ -3899,22 +4407,40 @@
       <c r="K36">
         <v>252.856643676758</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N36" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="67">
+        <v>1009.742371</v>
+      </c>
+      <c r="R36" s="67">
+        <v>5.418521404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>2007</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37">
         <v>31</v>
@@ -3931,22 +4457,40 @@
       <c r="K37">
         <v>307.353851318359</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N37" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="67">
+        <v>1155.828857</v>
+      </c>
+      <c r="R37" s="67">
+        <v>5.787534237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>2007</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F38">
         <v>31</v>
@@ -3963,22 +4507,40 @@
       <c r="K38">
         <v>881.791442871094</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N38" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="67">
+        <v>1189.230469</v>
+      </c>
+      <c r="R38" s="67">
+        <v>6.051395416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>2007</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F39">
         <v>31</v>
@@ -3995,22 +4557,40 @@
       <c r="K39">
         <v>1348.533203125</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N39" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="67">
+        <v>1211.097656</v>
+      </c>
+      <c r="R39" s="67">
+        <v>6.214399338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>2007</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F40">
         <v>31</v>
@@ -4027,22 +4607,40 @@
       <c r="K40">
         <v>668.352416992188</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N40" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="67">
+        <v>1201.803955</v>
+      </c>
+      <c r="R40" s="67">
+        <v>6.255067825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>2007</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F41">
         <v>31</v>
@@ -4059,22 +4657,40 @@
       <c r="K41">
         <v>348.776550292969</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N41" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="O41" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41" s="67">
+        <v>1074.652466</v>
+      </c>
+      <c r="R41" s="67">
+        <v>6.38045311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>2007</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F42">
         <v>31</v>
@@ -4091,22 +4707,40 @@
       <c r="K42">
         <v>694.047485351562</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N42" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="O42" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="67">
+        <v>1075.155518</v>
+      </c>
+      <c r="R42" s="67">
+        <v>6.383440018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>2007</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F43">
         <v>31</v>
@@ -4123,22 +4757,40 @@
       <c r="K43">
         <v>421.959045410156</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N43" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="O43" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="67">
+        <v>1144.112549</v>
+      </c>
+      <c r="R43" s="67">
+        <v>6.600651741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>2007</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F44">
         <v>31</v>
@@ -4155,22 +4807,40 @@
       <c r="K44">
         <v>2479.99340820312</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="M44" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N44" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="O44" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="67">
+        <v>1151.266113</v>
+      </c>
+      <c r="R44" s="67">
+        <v>6.641919136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>2007</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F45">
         <v>31</v>
@@ -4187,22 +4857,40 @@
       <c r="K45">
         <v>2315.0302734375</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="M45" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N45" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="67">
+        <v>1207.143921</v>
+      </c>
+      <c r="R45" s="67">
+        <v>7.167081356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>2006</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F46">
         <v>31</v>
@@ -4219,22 +4907,40 @@
       <c r="K46">
         <v>2790.408203125</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="M46" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N46" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="O46" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="P46" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" s="67">
+        <v>1238.788086</v>
+      </c>
+      <c r="R46" s="67">
+        <v>7.171090126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>2006</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F47">
         <v>31</v>
@@ -4251,22 +4957,40 @@
       <c r="K47">
         <v>806.623413085938</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="M47" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N47" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="O47" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="67">
+        <v>1239.878662</v>
+      </c>
+      <c r="R47" s="67">
+        <v>7.36143446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>2006</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F48">
         <v>31</v>
@@ -4283,22 +5007,40 @@
       <c r="K48">
         <v>1642.99377441406</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="M48" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N48" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="67">
+        <v>1308.475952</v>
+      </c>
+      <c r="R48" s="67">
+        <v>7.548899174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>2006</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F49">
         <v>31</v>
@@ -4315,22 +5057,40 @@
       <c r="K49">
         <v>346.710815429688</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="M49" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N49" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="O49" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P49" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="67">
+        <v>1332.214355</v>
+      </c>
+      <c r="R49" s="67">
+        <v>7.685851097</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>2006</v>
       </c>
       <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
         <v>34</v>
-      </c>
-      <c r="C50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" t="s">
-        <v>30</v>
       </c>
       <c r="F50">
         <v>31</v>
@@ -4347,22 +5107,40 @@
       <c r="K50">
         <v>264.298675537109</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="M50" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N50" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="O50" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="67">
+        <v>1337.204224</v>
+      </c>
+      <c r="R50" s="67">
+        <v>7.71463871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>2006</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F51">
         <v>31</v>
@@ -4379,22 +5157,40 @@
       <c r="K51">
         <v>411.678527832031</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="M51" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N51" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="O51" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P51" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="67">
+        <v>1451.21106</v>
+      </c>
+      <c r="R51" s="67">
+        <v>7.903036594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>2006</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F52">
         <v>31</v>
@@ -4411,22 +5207,40 @@
       <c r="K52">
         <v>4435.96533203125</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N52" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="O52" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P52" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="67">
+        <v>1483.690552</v>
+      </c>
+      <c r="R52" s="67">
+        <v>8.30488205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>2006</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F53">
         <v>31</v>
@@ -4443,22 +5257,40 @@
       <c r="K53">
         <v>654.795532226562</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="M53" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N53" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="O53" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="67">
+        <v>1498.776489</v>
+      </c>
+      <c r="R53" s="67">
+        <v>8.336727142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>2006</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F54">
         <v>31</v>
@@ -4475,22 +5307,40 @@
       <c r="K54">
         <v>2537.61157226562</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="M54" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N54" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="O54" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P54" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="67">
+        <v>1543.048828</v>
+      </c>
+      <c r="R54" s="67">
+        <v>8.45770359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>2006</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F55">
         <v>31</v>
@@ -4507,22 +5357,40 @@
       <c r="K55">
         <v>3322.83374023438</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="M55" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N55" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="O55" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="P55" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="67">
+        <v>1578.292603</v>
+      </c>
+      <c r="R55" s="67">
+        <v>8.6019907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>2006</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F56">
         <v>31</v>
@@ -4539,22 +5407,40 @@
       <c r="K56">
         <v>288.583099365234</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="M56" s="67">
+        <v>2001</v>
+      </c>
+      <c r="N56" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="O56" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="67">
+        <v>1556.62146</v>
+      </c>
+      <c r="R56" s="67">
+        <v>9.019470215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>2006</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F57">
         <v>31</v>
@@ -4571,22 +5457,40 @@
       <c r="K57">
         <v>447.450134277344</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="M57" s="67">
+        <v>2000</v>
+      </c>
+      <c r="N57" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="O57" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="67">
+        <v>1570.983032</v>
+      </c>
+      <c r="R57" s="67">
+        <v>9.102679253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>2006</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F58">
         <v>31</v>
@@ -4603,22 +5507,40 @@
       <c r="K58">
         <v>175.167999267578</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="M58" s="67">
+        <v>1999</v>
+      </c>
+      <c r="N58" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="O58" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q58" s="67">
+        <v>1816.638306</v>
+      </c>
+      <c r="R58" s="67">
+        <v>10.52606869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>2006</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F59">
         <v>31</v>
@@ -4635,22 +5557,40 @@
       <c r="K59">
         <v>1611.94836425781</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="M59" s="67">
+        <v>1997</v>
+      </c>
+      <c r="N59" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="O59" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q59" s="67">
+        <v>1850.337524</v>
+      </c>
+      <c r="R59" s="67">
+        <v>10.7213335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>2006</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F60">
         <v>31</v>
@@ -4666,6 +5606,24 @@
       </c>
       <c r="K60">
         <v>166.155197143555</v>
+      </c>
+      <c r="M60" s="67">
+        <v>1998</v>
+      </c>
+      <c r="N60" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="O60" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="67">
+        <v>1851.209351</v>
+      </c>
+      <c r="R60" s="67">
+        <v>10.72638416</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4673,16 +5631,16 @@
         <v>2006</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F61">
         <v>31</v>
@@ -4705,16 +5663,16 @@
         <v>2006</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F62">
         <v>31</v>
@@ -4737,16 +5695,16 @@
         <v>2006</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F63">
         <v>31</v>
@@ -4769,16 +5727,16 @@
         <v>2006</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F64">
         <v>31</v>
@@ -4801,16 +5759,16 @@
         <v>2006</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F65">
         <v>31</v>
@@ -4833,16 +5791,16 @@
         <v>2006</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F66">
         <v>31</v>
@@ -4865,16 +5823,16 @@
         <v>2006</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F67">
         <v>31</v>
@@ -4897,16 +5855,16 @@
         <v>2006</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F68">
         <v>31</v>
@@ -4929,16 +5887,16 @@
         <v>2006</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F69">
         <v>31</v>
@@ -4961,16 +5919,16 @@
         <v>2006</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F70">
         <v>31</v>
@@ -4993,16 +5951,16 @@
         <v>2006</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F71">
         <v>31</v>
@@ -5025,16 +5983,16 @@
         <v>2006</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5057,16 +6015,16 @@
         <v>2006</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5089,16 +6047,16 @@
         <v>2006</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F74">
         <v>31</v>
@@ -5121,16 +6079,16 @@
         <v>2006</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F75">
         <v>31</v>
@@ -5153,16 +6111,16 @@
         <v>2006</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F76">
         <v>31</v>
@@ -5185,16 +6143,16 @@
         <v>2005</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F77">
         <v>31</v>
@@ -5217,16 +6175,16 @@
         <v>2005</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F78">
         <v>31</v>
@@ -5249,16 +6207,16 @@
         <v>2005</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F79">
         <v>31</v>
@@ -5281,16 +6239,16 @@
         <v>2005</v>
       </c>
       <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" t="s">
         <v>34</v>
-      </c>
-      <c r="C80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" t="s">
-        <v>30</v>
       </c>
       <c r="F80">
         <v>31</v>
@@ -5313,16 +6271,16 @@
         <v>2005</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F81">
         <v>31</v>
@@ -5345,16 +6303,16 @@
         <v>2005</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F82">
         <v>31</v>
@@ -5377,16 +6335,16 @@
         <v>2005</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F83">
         <v>31</v>
@@ -5409,16 +6367,16 @@
         <v>2005</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F84">
         <v>31</v>
@@ -5441,16 +6399,16 @@
         <v>2005</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F85">
         <v>31</v>
@@ -5473,16 +6431,16 @@
         <v>2005</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F86">
         <v>31</v>
@@ -5505,16 +6463,16 @@
         <v>2005</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F87">
         <v>31</v>
@@ -5537,16 +6495,16 @@
         <v>2005</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F88">
         <v>31</v>
@@ -5569,16 +6527,16 @@
         <v>2005</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F89">
         <v>31</v>
@@ -5601,16 +6559,16 @@
         <v>2005</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F90">
         <v>31</v>
@@ -5633,16 +6591,16 @@
         <v>2005</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F91">
         <v>31</v>
@@ -5665,16 +6623,16 @@
         <v>2005</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F92">
         <v>31</v>
@@ -5697,16 +6655,16 @@
         <v>2005</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F93">
         <v>31</v>
@@ -5729,16 +6687,16 @@
         <v>2005</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F94">
         <v>31</v>
@@ -5761,16 +6719,16 @@
         <v>2005</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F95">
         <v>31</v>
@@ -5793,16 +6751,16 @@
         <v>2005</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F96">
         <v>31</v>
@@ -5825,16 +6783,16 @@
         <v>2005</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -5857,16 +6815,16 @@
         <v>2005</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F98">
         <v>31</v>
@@ -5889,16 +6847,16 @@
         <v>2005</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F99">
         <v>31</v>
@@ -5921,16 +6879,16 @@
         <v>2005</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F100">
         <v>31</v>
@@ -5953,16 +6911,16 @@
         <v>2005</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F101">
         <v>31</v>
@@ -5985,16 +6943,16 @@
         <v>2005</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F102">
         <v>31</v>
@@ -6017,16 +6975,16 @@
         <v>2005</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D103" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F103">
         <v>31</v>
@@ -6049,16 +7007,16 @@
         <v>2005</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F104">
         <v>31</v>
@@ -6081,16 +7039,16 @@
         <v>2004</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D105" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F105">
         <v>31</v>
@@ -6113,16 +7071,16 @@
         <v>2004</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F106">
         <v>31</v>
@@ -6145,16 +7103,16 @@
         <v>2004</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F107">
         <v>31</v>
@@ -6177,16 +7135,16 @@
         <v>2004</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F108">
         <v>31</v>
@@ -6209,16 +7167,16 @@
         <v>2004</v>
       </c>
       <c r="B109" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F109">
         <v>31</v>
@@ -6241,16 +7199,16 @@
         <v>2004</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F110">
         <v>31</v>
@@ -6273,16 +7231,16 @@
         <v>2004</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F111">
         <v>31</v>
@@ -6305,16 +7263,16 @@
         <v>2004</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D112" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F112">
         <v>31</v>
@@ -6337,16 +7295,16 @@
         <v>2004</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D113" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F113">
         <v>31</v>
@@ -6369,16 +7327,16 @@
         <v>2004</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F114">
         <v>31</v>
@@ -6401,16 +7359,16 @@
         <v>2004</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D115" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F115">
         <v>31</v>
@@ -6433,16 +7391,16 @@
         <v>2004</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D116" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F116">
         <v>31</v>
@@ -6465,16 +7423,16 @@
         <v>2004</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F117">
         <v>31</v>
@@ -6497,16 +7455,16 @@
         <v>2004</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F118">
         <v>31</v>
@@ -6529,16 +7487,16 @@
         <v>2004</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D119" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F119">
         <v>31</v>
@@ -6561,16 +7519,16 @@
         <v>2004</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F120">
         <v>31</v>
@@ -6593,16 +7551,16 @@
         <v>2004</v>
       </c>
       <c r="B121" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F121">
         <v>31</v>
@@ -6625,16 +7583,16 @@
         <v>2004</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F122">
         <v>31</v>
@@ -6657,16 +7615,16 @@
         <v>2004</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F123">
         <v>31</v>
@@ -6689,16 +7647,16 @@
         <v>2004</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C124" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D124" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F124">
         <v>31</v>
@@ -6721,16 +7679,16 @@
         <v>2004</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C125" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D125" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F125">
         <v>31</v>
@@ -6753,16 +7711,16 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D126" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F126">
         <v>31</v>
@@ -6785,16 +7743,16 @@
         <v>2004</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F127">
         <v>31</v>
@@ -6817,16 +7775,16 @@
         <v>2004</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F128">
         <v>31</v>
@@ -6849,16 +7807,16 @@
         <v>2004</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C129" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F129">
         <v>31</v>
@@ -6881,16 +7839,16 @@
         <v>2004</v>
       </c>
       <c r="B130" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D130" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F130">
         <v>31</v>
@@ -6913,16 +7871,16 @@
         <v>2004</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D131" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F131">
         <v>31</v>
@@ -6970,24 +7928,24 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="32" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>2090.85</v>
@@ -6998,10 +7956,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C5">
         <v>1259.47</v>
@@ -7012,10 +7970,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C6">
         <v>1830.92</v>
@@ -7026,10 +7984,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>1440.52</v>
@@ -7040,10 +7998,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C8">
         <v>809.72</v>
@@ -7054,10 +8012,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C9">
         <v>1670.33</v>
@@ -7068,10 +8026,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D10">
         <v>632.26</v>
@@ -7079,10 +8037,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D11">
         <v>482.64</v>
@@ -7090,10 +8048,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C12">
         <v>612.58</v>
@@ -7104,10 +8062,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>548.69</v>
@@ -7118,10 +8076,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C14">
         <v>740.23</v>
@@ -7132,10 +8090,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C15">
         <v>698.89</v>
@@ -7146,10 +8104,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C16">
         <v>452.4</v>
@@ -7160,10 +8118,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C17">
         <v>260.74</v>
@@ -7174,10 +8132,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C18">
         <v>113.98</v>
@@ -7188,10 +8146,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C19">
         <v>217.43</v>
@@ -7682,7 +8640,7 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
@@ -7798,7 +8756,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -7914,7 +8872,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
       <c r="E7" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -8144,7 +9102,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="38" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -8260,7 +9218,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
       <c r="E10" s="37" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -8376,7 +9334,7 @@
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -8492,7 +9450,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
       <c r="E12" s="39" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
@@ -8607,8 +9565,8 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="66" t="s">
-        <v>178</v>
+      <c r="E13" s="68" t="s">
+        <v>189</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -8724,7 +9682,7 @@
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
       <c r="E14" s="41" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
@@ -8961,7 +9919,7 @@
       <c r="J16" s="43"/>
       <c r="K16" s="42"/>
       <c r="L16" s="53" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M16" s="54"/>
       <c r="N16" s="54"/>
@@ -9066,37 +10024,37 @@
     </row>
     <row r="17" s="33" customFormat="1" ht="36" spans="1:112">
       <c r="A17" s="45" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" s="68" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>202</v>
       </c>
       <c r="L17" s="56">
         <v>0</v>
@@ -9399,7 +10357,7 @@
         <v>99</v>
       </c>
       <c r="DH17" s="56" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" s="33" customFormat="1" ht="11.4" spans="1:112">
@@ -9407,28 +10365,28 @@
         <v>7653</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E18" s="50">
         <v>356</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H18" s="50">
         <v>356</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J18" s="50">
         <v>5501</v>
@@ -9745,28 +10703,28 @@
         <v>7654</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E19" s="50">
         <v>356</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H19" s="50">
         <v>356</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J19" s="50">
         <v>5501</v>
@@ -10083,28 +11041,28 @@
         <v>7655</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E20" s="50">
         <v>356</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H20" s="50">
         <v>356</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J20" s="50">
         <v>5501</v>
@@ -10421,28 +11379,28 @@
         <v>7656</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E21" s="50">
         <v>356</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H21" s="50">
         <v>356</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J21" s="50">
         <v>5501</v>
@@ -10759,28 +11717,28 @@
         <v>7657</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E22" s="50">
         <v>356</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H22" s="50">
         <v>356</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J22" s="50">
         <v>5501</v>
@@ -11097,28 +12055,28 @@
         <v>7658</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E23" s="50">
         <v>356</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H23" s="50">
         <v>356</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J23" s="50">
         <v>5501</v>
@@ -11435,28 +12393,28 @@
         <v>7659</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E24" s="50">
         <v>356</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H24" s="50">
         <v>356</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J24" s="50">
         <v>5501</v>
@@ -11773,28 +12731,28 @@
         <v>7660</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E25" s="50">
         <v>356</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H25" s="50">
         <v>356</v>
       </c>
       <c r="I25" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J25" s="50">
         <v>5501</v>
@@ -12111,28 +13069,28 @@
         <v>7661</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E26" s="50">
         <v>356</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H26" s="50">
         <v>356</v>
       </c>
       <c r="I26" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J26" s="50">
         <v>5501</v>
@@ -12449,28 +13407,28 @@
         <v>7662</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E27" s="50">
         <v>356</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H27" s="50">
         <v>356</v>
       </c>
       <c r="I27" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J27" s="50">
         <v>5501</v>
@@ -12787,28 +13745,28 @@
         <v>7663</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E28" s="50">
         <v>356</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H28" s="50">
         <v>356</v>
       </c>
       <c r="I28" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J28" s="50">
         <v>5501</v>
@@ -13125,28 +14083,28 @@
         <v>7664</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E29" s="50">
         <v>356</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H29" s="50">
         <v>356</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J29" s="50">
         <v>5501</v>
@@ -13463,28 +14421,28 @@
         <v>7665</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E30" s="50">
         <v>356</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H30" s="50">
         <v>356</v>
       </c>
       <c r="I30" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J30" s="50">
         <v>5501</v>
@@ -13801,28 +14759,28 @@
         <v>7666</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E31" s="50">
         <v>356</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H31" s="50">
         <v>356</v>
       </c>
       <c r="I31" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J31" s="50">
         <v>5501</v>
@@ -14139,28 +15097,28 @@
         <v>7667</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E32" s="50">
         <v>356</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H32" s="50">
         <v>356</v>
       </c>
       <c r="I32" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J32" s="50">
         <v>5501</v>
@@ -14477,28 +15435,28 @@
         <v>7668</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E33" s="50">
         <v>356</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H33" s="50">
         <v>356</v>
       </c>
       <c r="I33" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J33" s="50">
         <v>5501</v>
@@ -14815,28 +15773,28 @@
         <v>7669</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E34" s="50">
         <v>356</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H34" s="50">
         <v>356</v>
       </c>
       <c r="I34" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J34" s="50">
         <v>5501</v>
@@ -15153,28 +16111,28 @@
         <v>7670</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E35" s="50">
         <v>356</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H35" s="50">
         <v>356</v>
       </c>
       <c r="I35" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J35" s="50">
         <v>5501</v>
@@ -15491,28 +16449,28 @@
         <v>7671</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E36" s="50">
         <v>356</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H36" s="50">
         <v>356</v>
       </c>
       <c r="I36" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J36" s="50">
         <v>5501</v>
@@ -15829,28 +16787,28 @@
         <v>7672</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E37" s="50">
         <v>356</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H37" s="50">
         <v>356</v>
       </c>
       <c r="I37" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J37" s="50">
         <v>5501</v>
@@ -16167,28 +17125,28 @@
         <v>7673</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E38" s="50">
         <v>356</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H38" s="50">
         <v>356</v>
       </c>
       <c r="I38" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J38" s="50">
         <v>5501</v>
@@ -16505,28 +17463,28 @@
         <v>7674</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E39" s="50">
         <v>356</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H39" s="50">
         <v>356</v>
       </c>
       <c r="I39" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J39" s="50">
         <v>5501</v>
@@ -16843,28 +17801,28 @@
         <v>7675</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E40" s="50">
         <v>356</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H40" s="50">
         <v>356</v>
       </c>
       <c r="I40" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J40" s="50">
         <v>5501</v>
@@ -17181,28 +18139,28 @@
         <v>7676</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E41" s="50">
         <v>356</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G41" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H41" s="50">
         <v>356</v>
       </c>
       <c r="I41" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J41" s="50">
         <v>5501</v>
@@ -17519,28 +18477,28 @@
         <v>7677</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E42" s="50">
         <v>356</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H42" s="50">
         <v>356</v>
       </c>
       <c r="I42" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J42" s="50">
         <v>5501</v>
@@ -17857,28 +18815,28 @@
         <v>7678</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E43" s="50">
         <v>356</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H43" s="50">
         <v>356</v>
       </c>
       <c r="I43" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J43" s="50">
         <v>5501</v>
@@ -18195,28 +19153,28 @@
         <v>7679</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E44" s="50">
         <v>356</v>
       </c>
       <c r="F44" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H44" s="50">
         <v>356</v>
       </c>
       <c r="I44" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J44" s="50">
         <v>5501</v>
@@ -18533,28 +19491,28 @@
         <v>7680</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E45" s="50">
         <v>356</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H45" s="50">
         <v>356</v>
       </c>
       <c r="I45" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J45" s="50">
         <v>5501</v>
@@ -18871,28 +19829,28 @@
         <v>7681</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E46" s="50">
         <v>356</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H46" s="50">
         <v>356</v>
       </c>
       <c r="I46" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J46" s="50">
         <v>5501</v>
@@ -19209,28 +20167,28 @@
         <v>7682</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E47" s="50">
         <v>356</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H47" s="50">
         <v>356</v>
       </c>
       <c r="I47" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J47" s="50">
         <v>5501</v>
@@ -19547,28 +20505,28 @@
         <v>7683</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C48" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E48" s="50">
         <v>356</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H48" s="50">
         <v>356</v>
       </c>
       <c r="I48" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J48" s="50">
         <v>5501</v>
@@ -19885,28 +20843,28 @@
         <v>7684</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E49" s="50">
         <v>356</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H49" s="50">
         <v>356</v>
       </c>
       <c r="I49" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J49" s="50">
         <v>5501</v>
@@ -20223,28 +21181,28 @@
         <v>7685</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E50" s="50">
         <v>356</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H50" s="50">
         <v>356</v>
       </c>
       <c r="I50" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J50" s="50">
         <v>5501</v>
@@ -20561,28 +21519,28 @@
         <v>7686</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E51" s="50">
         <v>356</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H51" s="50">
         <v>356</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J51" s="50">
         <v>5501</v>
@@ -20899,28 +21857,28 @@
         <v>7687</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E52" s="50">
         <v>356</v>
       </c>
       <c r="F52" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G52" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H52" s="50">
         <v>356</v>
       </c>
       <c r="I52" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J52" s="50">
         <v>5501</v>
@@ -21237,28 +22195,28 @@
         <v>7688</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E53" s="50">
         <v>356</v>
       </c>
       <c r="F53" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H53" s="50">
         <v>356</v>
       </c>
       <c r="I53" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J53" s="50">
         <v>5501</v>
@@ -21575,28 +22533,28 @@
         <v>7689</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E54" s="50">
         <v>356</v>
       </c>
       <c r="F54" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G54" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H54" s="50">
         <v>356</v>
       </c>
       <c r="I54" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J54" s="50">
         <v>5501</v>
@@ -21913,28 +22871,28 @@
         <v>7690</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E55" s="50">
         <v>356</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G55" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H55" s="50">
         <v>356</v>
       </c>
       <c r="I55" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J55" s="50">
         <v>5501</v>
@@ -22251,28 +23209,28 @@
         <v>7691</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E56" s="50">
         <v>356</v>
       </c>
       <c r="F56" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G56" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H56" s="50">
         <v>356</v>
       </c>
       <c r="I56" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J56" s="50">
         <v>5501</v>
@@ -22589,28 +23547,28 @@
         <v>7692</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E57" s="50">
         <v>356</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G57" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H57" s="50">
         <v>356</v>
       </c>
       <c r="I57" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J57" s="50">
         <v>5501</v>
@@ -22927,28 +23885,28 @@
         <v>7693</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E58" s="50">
         <v>356</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G58" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H58" s="50">
         <v>356</v>
       </c>
       <c r="I58" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J58" s="50">
         <v>5501</v>
@@ -23265,28 +24223,28 @@
         <v>7694</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E59" s="50">
         <v>356</v>
       </c>
       <c r="F59" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G59" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H59" s="50">
         <v>356</v>
       </c>
       <c r="I59" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J59" s="50">
         <v>5501</v>
@@ -23603,28 +24561,28 @@
         <v>7695</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E60" s="50">
         <v>356</v>
       </c>
       <c r="F60" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H60" s="50">
         <v>356</v>
       </c>
       <c r="I60" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J60" s="50">
         <v>5501</v>
@@ -23941,28 +24899,28 @@
         <v>7696</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E61" s="50">
         <v>356</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G61" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H61" s="50">
         <v>356</v>
       </c>
       <c r="I61" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J61" s="50">
         <v>5501</v>
@@ -24279,28 +25237,28 @@
         <v>7697</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D62" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E62" s="50">
         <v>356</v>
       </c>
       <c r="F62" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G62" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H62" s="50">
         <v>356</v>
       </c>
       <c r="I62" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J62" s="50">
         <v>5501</v>
@@ -24617,28 +25575,28 @@
         <v>7698</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E63" s="50">
         <v>356</v>
       </c>
       <c r="F63" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G63" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H63" s="50">
         <v>356</v>
       </c>
       <c r="I63" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J63" s="50">
         <v>5501</v>
@@ -24955,28 +25913,28 @@
         <v>7699</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E64" s="50">
         <v>356</v>
       </c>
       <c r="F64" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G64" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H64" s="50">
         <v>356</v>
       </c>
       <c r="I64" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J64" s="50">
         <v>5501</v>
@@ -25293,28 +26251,28 @@
         <v>7700</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E65" s="50">
         <v>356</v>
       </c>
       <c r="F65" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G65" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H65" s="50">
         <v>356</v>
       </c>
       <c r="I65" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J65" s="50">
         <v>5501</v>
@@ -25631,28 +26589,28 @@
         <v>7701</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E66" s="50">
         <v>356</v>
       </c>
       <c r="F66" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G66" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H66" s="50">
         <v>356</v>
       </c>
       <c r="I66" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J66" s="50">
         <v>5501</v>
@@ -25969,28 +26927,28 @@
         <v>7702</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E67" s="50">
         <v>356</v>
       </c>
       <c r="F67" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G67" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H67" s="50">
         <v>356</v>
       </c>
       <c r="I67" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J67" s="50">
         <v>5501</v>
@@ -26307,28 +27265,28 @@
         <v>7703</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E68" s="50">
         <v>356</v>
       </c>
       <c r="F68" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H68" s="50">
         <v>356</v>
       </c>
       <c r="I68" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J68" s="50">
         <v>5501</v>
@@ -26645,28 +27603,28 @@
         <v>7704</v>
       </c>
       <c r="B69" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E69" s="50">
         <v>356</v>
       </c>
       <c r="F69" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G69" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H69" s="50">
         <v>356</v>
       </c>
       <c r="I69" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J69" s="50">
         <v>5501</v>
@@ -26983,28 +27941,28 @@
         <v>7705</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E70" s="50">
         <v>356</v>
       </c>
       <c r="F70" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G70" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H70" s="50">
         <v>356</v>
       </c>
       <c r="I70" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J70" s="50">
         <v>5501</v>
@@ -27321,28 +28279,28 @@
         <v>7706</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E71" s="50">
         <v>356</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G71" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H71" s="50">
         <v>356</v>
       </c>
       <c r="I71" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J71" s="50">
         <v>5501</v>
@@ -27659,28 +28617,28 @@
         <v>7707</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C72" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D72" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E72" s="50">
         <v>356</v>
       </c>
       <c r="F72" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G72" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H72" s="50">
         <v>356</v>
       </c>
       <c r="I72" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J72" s="50">
         <v>5501</v>
@@ -27997,28 +28955,28 @@
         <v>7708</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E73" s="50">
         <v>356</v>
       </c>
       <c r="F73" s="50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H73" s="50">
         <v>356</v>
       </c>
       <c r="I73" s="57" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J73" s="50">
         <v>5501</v>
@@ -28353,20 +29311,20 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B4">
         <v>3471300</v>
@@ -28374,7 +29332,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B5">
         <v>2723764</v>
@@ -28382,7 +29340,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B6">
         <v>2502337</v>
@@ -28390,7 +29348,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B7">
         <v>1597134</v>
@@ -28398,7 +29356,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B8">
         <v>1375667</v>
@@ -28427,21 +29385,21 @@
   <sheetData>
     <row r="3" ht="14.55" spans="1:4">
       <c r="A3" s="26" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" ht="14.55" spans="1:4">
       <c r="A4" s="28" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B4" s="29">
         <v>22.8</v>
@@ -28455,7 +29413,7 @@
     </row>
     <row r="5" ht="14.55" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B5" s="31">
         <v>20.1</v>
@@ -28469,7 +29427,7 @@
     </row>
     <row r="6" ht="14.55" spans="1:4">
       <c r="A6" s="28" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B6" s="29">
         <v>6.7</v>
@@ -28483,7 +29441,7 @@
     </row>
     <row r="7" ht="14.55" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B7" s="31">
         <v>17.5</v>
@@ -28497,7 +29455,7 @@
     </row>
     <row r="8" ht="14.55" spans="1:4">
       <c r="A8" s="28" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B8" s="29">
         <v>4.7</v>
@@ -28511,7 +29469,7 @@
     </row>
     <row r="9" ht="14.55" spans="1:4">
       <c r="A9" s="30" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B9" s="31">
         <v>6.2</v>
@@ -28525,7 +29483,7 @@
     </row>
     <row r="10" ht="14.55" spans="1:4">
       <c r="A10" s="28" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B10" s="29">
         <v>0.6</v>
@@ -28539,7 +29497,7 @@
     </row>
     <row r="11" ht="14.55" spans="1:4">
       <c r="A11" s="30" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B11" s="31">
         <v>0.6</v>
@@ -28553,7 +29511,7 @@
     </row>
     <row r="12" ht="14.55" spans="1:4">
       <c r="A12" s="28" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B12" s="29">
         <v>0.4</v>
@@ -28567,7 +29525,7 @@
     </row>
     <row r="13" ht="14.55" spans="1:4">
       <c r="A13" s="30" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B13" s="31">
         <v>2.5</v>
@@ -28581,7 +29539,7 @@
     </row>
     <row r="14" ht="14.55" spans="1:4">
       <c r="A14" s="28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B14" s="29">
         <v>3.2</v>
@@ -28595,7 +29553,7 @@
     </row>
     <row r="15" ht="14.55" spans="1:4">
       <c r="A15" s="30" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B15" s="31">
         <v>4.8</v>
@@ -28609,7 +29567,7 @@
     </row>
     <row r="16" ht="14.55" spans="1:4">
       <c r="A16" s="28" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B16" s="29">
         <v>1.6</v>
@@ -28623,7 +29581,7 @@
     </row>
     <row r="17" ht="14.55" spans="1:4">
       <c r="A17" s="30" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B17" s="31">
         <v>8.4</v>
@@ -28637,7 +29595,7 @@
     </row>
     <row r="18" ht="14.55" spans="1:4">
       <c r="A18" s="28" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B18" s="29">
         <v>100</v>
@@ -28660,7 +29618,7 @@
   <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
@@ -28672,7 +29630,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B1" s="21">
         <v>44896</v>
@@ -28680,7 +29638,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>7.7</v>
@@ -28692,7 +29650,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B3">
         <v>4.7</v>
@@ -28700,7 +29658,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <v>19.1</v>
@@ -28718,7 +29676,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B5">
         <v>3.4</v>
@@ -28726,7 +29684,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>20.8</v>
@@ -28734,7 +29692,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B7">
         <v>9.9</v>
@@ -28742,7 +29700,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <v>2.3</v>
@@ -28750,7 +29708,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B9">
         <v>37.4</v>
@@ -28758,7 +29716,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B10">
         <v>7.6</v>
@@ -28766,7 +29724,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B11">
         <v>14.8</v>
@@ -28776,7 +29734,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -28784,7 +29742,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B13">
         <v>2.5</v>
@@ -28792,7 +29750,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B14">
         <v>7.4</v>
@@ -28800,7 +29758,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B15">
         <v>3.2</v>
@@ -28808,7 +29766,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B16">
         <v>3.1</v>
@@ -28816,7 +29774,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B17">
         <v>2.7</v>
@@ -28824,7 +29782,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B18">
         <v>0.9</v>
@@ -28832,7 +29790,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B19">
         <v>4.7</v>
@@ -28840,7 +29798,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B20">
         <v>6.8</v>
@@ -28848,7 +29806,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B21">
         <v>28.5</v>
@@ -28856,7 +29814,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B22">
         <v>13.6</v>
@@ -28864,7 +29822,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B23">
         <v>4.1</v>
@@ -28872,7 +29830,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B24">
         <v>4.1</v>
@@ -28880,7 +29838,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B25">
         <v>14.3</v>
@@ -28888,7 +29846,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B26">
         <v>4.3</v>
@@ -28896,7 +29854,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B27">
         <v>4.2</v>
@@ -28904,7 +29862,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B28">
         <v>5.5</v>
@@ -28918,7 +29876,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B32" s="23">
         <v>44562</v>
@@ -28956,7 +29914,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B33">
         <v>6.2</v>
@@ -28998,7 +29956,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>8.5</v>
@@ -29022,7 +29980,7 @@
         <v>3.7</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="J34">
         <v>0.4</v>
@@ -29036,7 +29994,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B35">
         <v>13.3</v>
@@ -29074,7 +30032,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -29112,7 +30070,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B37">
         <v>14.1</v>
@@ -29150,7 +30108,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B38">
         <v>11.6</v>
@@ -29180,7 +30138,7 @@
         <v>10.9</v>
       </c>
       <c r="K38" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="L38">
         <v>13.6</v>
@@ -29188,7 +30146,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B39">
         <v>1.2</v>
@@ -29226,7 +30184,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B40">
         <v>23.4</v>
@@ -29264,7 +30222,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B41">
         <v>13.8</v>
@@ -29302,7 +30260,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B42">
         <v>15.2</v>
@@ -29340,7 +30298,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B43">
         <v>8.9</v>
@@ -29378,7 +30336,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B44">
         <v>2.9</v>
@@ -29416,7 +30374,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -29454,7 +30412,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -29492,7 +30450,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B47">
         <v>4.2</v>
@@ -29530,7 +30488,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B48">
         <v>1.5</v>
@@ -29568,7 +30526,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B49">
         <v>1.8</v>
@@ -29606,7 +30564,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B50">
         <v>7.8</v>
@@ -29644,7 +30602,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B51">
         <v>9.3</v>
@@ -29682,7 +30640,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B52">
         <v>18.9</v>
@@ -29720,16 +30678,16 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E53">
         <v>8.7</v>
@@ -29744,10 +30702,10 @@
         <v>6.5</v>
       </c>
       <c r="I53" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="J53" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="K53">
         <v>3.9</v>
@@ -29758,7 +30716,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B54">
         <v>5.3</v>
@@ -29796,7 +30754,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B55">
         <v>0.7</v>
@@ -29834,7 +30792,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B56">
         <v>17.1</v>
@@ -29872,7 +30830,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -29910,7 +30868,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B58">
         <v>3.5</v>
@@ -29931,10 +30889,10 @@
         <v>8.7</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I58" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="J58">
         <v>0.5</v>
@@ -29948,7 +30906,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B59">
         <v>6.4</v>
@@ -29986,7 +30944,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B60">
         <v>6.6</v>
@@ -30054,7 +31012,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -30068,16 +31026,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -30087,19 +31045,19 @@
     <row r="3" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -30107,31 +31065,31 @@
     <row r="4" ht="27.6" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -30148,135 +31106,135 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="11" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
@@ -30288,27 +31246,27 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="11" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -30320,71 +31278,71 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="11" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="11" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -30399,56 +31357,56 @@
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="11" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="11" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B15" s="10">
         <v>0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -30463,18 +31421,18 @@
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B16" s="10">
         <v>0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -30495,39 +31453,39 @@
         <v>0</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -30554,7 +31512,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="13" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -30574,19 +31532,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="12" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C23" s="12"/>
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="15" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -30597,84 +31555,84 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="4" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="17" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="17" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="17" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="17" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="17" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="17" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -30689,7 +31647,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="15" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -30705,12 +31663,12 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="17" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -30723,24 +31681,24 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="17" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -30753,12 +31711,12 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="17" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -30771,12 +31729,12 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="17" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -30788,12 +31746,12 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="17" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -30806,12 +31764,12 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="17" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -30824,12 +31782,12 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="17" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -30841,12 +31799,12 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="17" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -30859,12 +31817,12 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="17" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -30888,12 +31846,12 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="19" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="17" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -30902,12 +31860,12 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="17" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -30919,12 +31877,12 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="17" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -30933,12 +31891,12 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="17" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -30955,7 +31913,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="20" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -30966,12 +31924,12 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="17" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -30984,48 +31942,48 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="17" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="17" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="17" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="17" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
